--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col9a3-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Col9a3</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,247 +525,1239 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.969515163123039</v>
+        <v>1.089714666666667</v>
       </c>
       <c r="H2">
-        <v>0.969515163123039</v>
+        <v>3.269144</v>
       </c>
       <c r="I2">
-        <v>0.3248425088895183</v>
+        <v>0.3021103264967364</v>
       </c>
       <c r="J2">
-        <v>0.3248425088895183</v>
+        <v>0.3021103264967364</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.247810795414966</v>
+        <v>0.061306</v>
       </c>
       <c r="N2">
-        <v>0.247810795414966</v>
+        <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1297580344745843</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1297580344745843</v>
       </c>
       <c r="Q2">
-        <v>0.2402563237403908</v>
+        <v>0.06680604735466668</v>
       </c>
       <c r="R2">
-        <v>0.2402563237403908</v>
+        <v>0.6012544261920001</v>
       </c>
       <c r="S2">
-        <v>0.3248425088895183</v>
+        <v>0.03920124216069144</v>
       </c>
       <c r="T2">
-        <v>0.3248425088895183</v>
+        <v>0.03920124216069144</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.955203683992226</v>
+        <v>1.089714666666667</v>
       </c>
       <c r="H3">
-        <v>0.955203683992226</v>
+        <v>3.269144</v>
       </c>
       <c r="I3">
-        <v>0.3200473525437446</v>
+        <v>0.3021103264967364</v>
       </c>
       <c r="J3">
-        <v>0.3200473525437446</v>
+        <v>0.3021103264967364</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.247810795414966</v>
+        <v>0.2837853333333334</v>
       </c>
       <c r="N3">
-        <v>0.247810795414966</v>
+        <v>0.8513560000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6006496438529355</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6006496438529355</v>
       </c>
       <c r="Q3">
-        <v>0.2367097847134194</v>
+        <v>0.3092450399182223</v>
       </c>
       <c r="R3">
-        <v>0.2367097847134194</v>
+        <v>2.783205359264</v>
       </c>
       <c r="S3">
-        <v>0.3200473525437446</v>
+        <v>0.1814624600145588</v>
       </c>
       <c r="T3">
-        <v>0.3200473525437446</v>
+        <v>0.1814624600145588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5167692173377419</v>
+        <v>1.089714666666667</v>
       </c>
       <c r="H4">
-        <v>0.5167692173377419</v>
+        <v>3.269144</v>
       </c>
       <c r="I4">
-        <v>0.1731469660939806</v>
+        <v>0.3021103264967364</v>
       </c>
       <c r="J4">
-        <v>0.1731469660939806</v>
+        <v>0.3021103264967364</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.247810795414966</v>
+        <v>0.1008886666666667</v>
       </c>
       <c r="N4">
-        <v>0.247810795414966</v>
+        <v>0.302666</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2135372571596283</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2135372571596283</v>
       </c>
       <c r="Q4">
-        <v>0.1280609907944353</v>
+        <v>0.1099398597671111</v>
       </c>
       <c r="R4">
-        <v>0.1280609907944353</v>
+        <v>0.9894587379040001</v>
       </c>
       <c r="S4">
-        <v>0.1731469660939806</v>
+        <v>0.06451181047971288</v>
       </c>
       <c r="T4">
-        <v>0.1731469660939806</v>
+        <v>0.06451181047971288</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.089714666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.269144</v>
+      </c>
+      <c r="I5">
+        <v>0.3021103264967364</v>
+      </c>
+      <c r="J5">
+        <v>0.3021103264967364</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.026484</v>
+      </c>
+      <c r="N5">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P5">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q5">
+        <v>0.028860003232</v>
+      </c>
+      <c r="R5">
+        <v>0.259740029088</v>
+      </c>
+      <c r="S5">
+        <v>0.01693481384177327</v>
+      </c>
+      <c r="T5">
+        <v>0.01693481384177327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.056881333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.170644</v>
+      </c>
+      <c r="I6">
+        <v>0.293007678476359</v>
+      </c>
+      <c r="J6">
+        <v>0.2930076784763591</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.061306</v>
+      </c>
+      <c r="N6">
+        <v>0.183918</v>
+      </c>
+      <c r="O6">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P6">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q6">
+        <v>0.06479316702133334</v>
+      </c>
+      <c r="R6">
+        <v>0.583138503192</v>
+      </c>
+      <c r="S6">
+        <v>0.0380201004450533</v>
+      </c>
+      <c r="T6">
+        <v>0.03802010044505331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.056881333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.170644</v>
+      </c>
+      <c r="I7">
+        <v>0.293007678476359</v>
+      </c>
+      <c r="J7">
+        <v>0.2930076784763591</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P7">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q7">
+        <v>0.2999274214737778</v>
+      </c>
+      <c r="R7">
+        <v>2.699346793264001</v>
+      </c>
+      <c r="S7">
+        <v>0.1759949577230005</v>
+      </c>
+      <c r="T7">
+        <v>0.1759949577230005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.056881333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.170644</v>
+      </c>
+      <c r="I8">
+        <v>0.293007678476359</v>
+      </c>
+      <c r="J8">
+        <v>0.2930076784763591</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.302666</v>
+      </c>
+      <c r="O8">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P8">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q8">
+        <v>0.1066273485448889</v>
+      </c>
+      <c r="R8">
+        <v>0.959646136904</v>
+      </c>
+      <c r="S8">
+        <v>0.06256805598855197</v>
+      </c>
+      <c r="T8">
+        <v>0.06256805598855199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.056881333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.170644</v>
+      </c>
+      <c r="I9">
+        <v>0.293007678476359</v>
+      </c>
+      <c r="J9">
+        <v>0.2930076784763591</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.026484</v>
+      </c>
+      <c r="N9">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P9">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q9">
+        <v>0.027990445232</v>
+      </c>
+      <c r="R9">
+        <v>0.251914007088</v>
+      </c>
+      <c r="S9">
+        <v>0.01642456431975323</v>
+      </c>
+      <c r="T9">
+        <v>0.01642456431975323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.543081801225439</v>
-      </c>
-      <c r="H5">
-        <v>0.543081801225439</v>
-      </c>
-      <c r="I5">
-        <v>0.1819631724727566</v>
-      </c>
-      <c r="J5">
-        <v>0.1819631724727566</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.247810795414966</v>
-      </c>
-      <c r="N5">
-        <v>0.247810795414966</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.1345815331370685</v>
-      </c>
-      <c r="R5">
-        <v>0.1345815331370685</v>
-      </c>
-      <c r="S5">
-        <v>0.1819631724727566</v>
-      </c>
-      <c r="T5">
-        <v>0.1819631724727566</v>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7149866666666668</v>
+      </c>
+      <c r="H10">
+        <v>2.14496</v>
+      </c>
+      <c r="I10">
+        <v>0.1982214811958237</v>
+      </c>
+      <c r="J10">
+        <v>0.1982214811958236</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.061306</v>
+      </c>
+      <c r="N10">
+        <v>0.183918</v>
+      </c>
+      <c r="O10">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P10">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q10">
+        <v>0.04383297258666667</v>
+      </c>
+      <c r="R10">
+        <v>0.3944967532800001</v>
+      </c>
+      <c r="S10">
+        <v>0.02572082979061085</v>
+      </c>
+      <c r="T10">
+        <v>0.02572082979061084</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7149866666666668</v>
+      </c>
+      <c r="H11">
+        <v>2.14496</v>
+      </c>
+      <c r="I11">
+        <v>0.1982214811958237</v>
+      </c>
+      <c r="J11">
+        <v>0.1982214811958236</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P11">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q11">
+        <v>0.202902729528889</v>
+      </c>
+      <c r="R11">
+        <v>1.82612456576</v>
+      </c>
+      <c r="S11">
+        <v>0.1190616620842728</v>
+      </c>
+      <c r="T11">
+        <v>0.1190616620842728</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7149866666666668</v>
+      </c>
+      <c r="H12">
+        <v>2.14496</v>
+      </c>
+      <c r="I12">
+        <v>0.1982214811958237</v>
+      </c>
+      <c r="J12">
+        <v>0.1982214811958236</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.302666</v>
+      </c>
+      <c r="O12">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P12">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q12">
+        <v>0.07213405148444446</v>
+      </c>
+      <c r="R12">
+        <v>0.64920646336</v>
+      </c>
+      <c r="S12">
+        <v>0.04232767140467503</v>
+      </c>
+      <c r="T12">
+        <v>0.04232767140467503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7149866666666668</v>
+      </c>
+      <c r="H13">
+        <v>2.14496</v>
+      </c>
+      <c r="I13">
+        <v>0.1982214811958237</v>
+      </c>
+      <c r="J13">
+        <v>0.1982214811958236</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.026484</v>
+      </c>
+      <c r="N13">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P13">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q13">
+        <v>0.01893570688</v>
+      </c>
+      <c r="R13">
+        <v>0.17042136192</v>
+      </c>
+      <c r="S13">
+        <v>0.01111131791626493</v>
+      </c>
+      <c r="T13">
+        <v>0.01111131791626493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5492193333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.647658</v>
+      </c>
+      <c r="I14">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="J14">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.061306</v>
+      </c>
+      <c r="N14">
+        <v>0.183918</v>
+      </c>
+      <c r="O14">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P14">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q14">
+        <v>0.03367044044933333</v>
+      </c>
+      <c r="R14">
+        <v>0.303033964044</v>
+      </c>
+      <c r="S14">
+        <v>0.01975753905487201</v>
+      </c>
+      <c r="T14">
+        <v>0.01975753905487201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5492193333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.647658</v>
+      </c>
+      <c r="I15">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="J15">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P15">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q15">
+        <v>0.1558603915831111</v>
+      </c>
+      <c r="R15">
+        <v>1.402743524248</v>
+      </c>
+      <c r="S15">
+        <v>0.09145760295131321</v>
+      </c>
+      <c r="T15">
+        <v>0.09145760295131321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5492193333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.647658</v>
+      </c>
+      <c r="I16">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="J16">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.302666</v>
+      </c>
+      <c r="O16">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P16">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q16">
+        <v>0.05541000624755555</v>
+      </c>
+      <c r="R16">
+        <v>0.4986900562279999</v>
+      </c>
+      <c r="S16">
+        <v>0.0325141384507329</v>
+      </c>
+      <c r="T16">
+        <v>0.0325141384507329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5492193333333333</v>
+      </c>
+      <c r="H17">
+        <v>1.647658</v>
+      </c>
+      <c r="I17">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="J17">
+        <v>0.1522644754513596</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.026484</v>
+      </c>
+      <c r="N17">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P17">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q17">
+        <v>0.014545524824</v>
+      </c>
+      <c r="R17">
+        <v>0.130909723416</v>
+      </c>
+      <c r="S17">
+        <v>0.008535194994441496</v>
+      </c>
+      <c r="T17">
+        <v>0.008535194994441497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.196207</v>
+      </c>
+      <c r="H18">
+        <v>0.5886209999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.05439603837972126</v>
+      </c>
+      <c r="J18">
+        <v>0.05439603837972125</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.061306</v>
+      </c>
+      <c r="N18">
+        <v>0.183918</v>
+      </c>
+      <c r="O18">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P18">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q18">
+        <v>0.012028666342</v>
+      </c>
+      <c r="R18">
+        <v>0.108257997078</v>
+      </c>
+      <c r="S18">
+        <v>0.00705832302335668</v>
+      </c>
+      <c r="T18">
+        <v>0.007058323023356679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.196207</v>
+      </c>
+      <c r="H19">
+        <v>0.5886209999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.05439603837972126</v>
+      </c>
+      <c r="J19">
+        <v>0.05439603837972125</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P19">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q19">
+        <v>0.05568066889733334</v>
+      </c>
+      <c r="R19">
+        <v>0.501126020076</v>
+      </c>
+      <c r="S19">
+        <v>0.03267296107979018</v>
+      </c>
+      <c r="T19">
+        <v>0.03267296107979018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.196207</v>
+      </c>
+      <c r="H20">
+        <v>0.5886209999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.05439603837972126</v>
+      </c>
+      <c r="J20">
+        <v>0.05439603837972125</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.302666</v>
+      </c>
+      <c r="O20">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P20">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q20">
+        <v>0.01979506262066667</v>
+      </c>
+      <c r="R20">
+        <v>0.178155563586</v>
+      </c>
+      <c r="S20">
+        <v>0.01161558083595555</v>
+      </c>
+      <c r="T20">
+        <v>0.01161558083595555</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.196207</v>
+      </c>
+      <c r="H21">
+        <v>0.5886209999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.05439603837972126</v>
+      </c>
+      <c r="J21">
+        <v>0.05439603837972125</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.026484</v>
+      </c>
+      <c r="N21">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P21">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q21">
+        <v>0.005196346187999999</v>
+      </c>
+      <c r="R21">
+        <v>0.04676711569199999</v>
+      </c>
+      <c r="S21">
+        <v>0.003049173440618835</v>
+      </c>
+      <c r="T21">
+        <v>0.003049173440618835</v>
       </c>
     </row>
   </sheetData>
